--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1447.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1447.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.687216618870982</v>
+        <v>1.25146210193634</v>
       </c>
       <c r="B1">
-        <v>1.973549775729179</v>
+        <v>2.489693164825439</v>
       </c>
       <c r="C1">
-        <v>2.539064676887384</v>
+        <v>4.887235164642334</v>
       </c>
       <c r="D1">
-        <v>2.825756965835869</v>
+        <v>3.066373586654663</v>
       </c>
       <c r="E1">
-        <v>0.6287137503554796</v>
+        <v>1.118917107582092</v>
       </c>
     </row>
   </sheetData>
